--- a/dz1.xlsx
+++ b/dz1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Workstation\Documents\GitHub\Noname\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="19740" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="19740" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Задание-1.1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -275,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,20 +505,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,9 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -560,15 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="89"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="89"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="89"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -585,6 +569,27 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="89"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="89"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="89"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -595,6 +600,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -983,7 +991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,7 +1026,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1229,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,1439 +1267,1439 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>85</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>73</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>845</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>1.325</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <f>'[1]Задание (2)'!B4/100</f>
         <v>0.312</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <f>'[1]Задание (2)'!I4/100</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>140</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>90</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>10</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>830</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>0.9</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <f>'[1]Задание (2)'!B5/100</f>
         <v>0.85</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <f>'[1]Задание (2)'!I5/100</f>
         <v>1E-3</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>326</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>120</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>810</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>0.85</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <f>'[1]Задание (2)'!B6/100</f>
         <v>0.9</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <f>'[1]Задание (2)'!I6/100</f>
         <v>1.9E-2</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>25</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>860</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>1.46</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <f>'[1]Задание (2)'!B7/100</f>
         <v>0.45</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <f>'[1]Задание (2)'!I7/100</f>
         <v>0.01</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>90</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>60</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>14</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>812</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>1.6</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <f>'[1]Задание (2)'!B8/100</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <f>'[1]Задание (2)'!I8/100</f>
         <v>0.01</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>56</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>90</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>8</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>850</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>1.3620000000000001</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <f>'[1]Задание (2)'!B9/100</f>
         <v>0.6</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <f>'[1]Задание (2)'!I9/100</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>400</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>90</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>790</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <v>0.9</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <f>'[1]Задание (2)'!B10/100</f>
         <v>0.77</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <f>'[1]Задание (2)'!I10/100</f>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>150</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>80</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>8</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>802</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>1.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <f>'[1]Задание (2)'!B11/100</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <f>'[1]Задание (2)'!I11/100</f>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>270</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>75</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>9</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>810</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>1.7</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <f>'[1]Задание (2)'!B12/100</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <f>'[1]Задание (2)'!I12/100</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>380</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>64</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>12</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>800</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <f>'[1]Задание (2)'!B13/100</f>
         <v>0.78</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <f>'[1]Задание (2)'!I13/100</f>
         <v>2E-3</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>670</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>100</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>17</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>780</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="13">
         <v>1.05</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="13">
         <f>'[1]Задание (2)'!B14/100</f>
         <v>0.64</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="13">
         <f>'[1]Задание (2)'!I14/100</f>
         <v>0.01</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>27</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>35</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>860</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>0.75</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="13">
         <f>'[1]Задание (2)'!B15/100</f>
         <v>0.97</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="13">
         <f>'[1]Задание (2)'!I15/100</f>
         <v>1E-3</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>69</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>45</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>5</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>850</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>1.2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="13">
         <f>'[1]Задание (2)'!B16/100</f>
         <v>0.88</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="13">
         <f>'[1]Задание (2)'!I16/100</f>
         <v>0.01</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>190</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>90</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>12</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>810</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>1.7889999999999999</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="13">
         <f>'[1]Задание (2)'!B17/100</f>
         <v>0.15</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="13">
         <f>'[1]Задание (2)'!I17/100</f>
         <v>1E-3</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="13">
         <v>220</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>95</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>11</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>801</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <v>1.526</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="13">
         <f>'[1]Задание (2)'!B18/100</f>
         <v>0.25</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="13">
         <f>'[1]Задание (2)'!I18/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <v>305</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>90</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="13">
         <v>10</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>795</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>1.45</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="13">
         <f>'[1]Задание (2)'!B19/100</f>
         <v>0.35</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="13">
         <f>'[1]Задание (2)'!I19/100</f>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="13">
         <v>175</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>105</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>15</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>820</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>0.89</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="13">
         <f>'[1]Задание (2)'!B20/100</f>
         <v>0.99</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="13">
         <f>'[1]Задание (2)'!I20/100</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="13">
         <v>150</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>115</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <v>16</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="13">
         <v>830</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>1.1020000000000001</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="13">
         <f>'[1]Задание (2)'!B21/100</f>
         <v>0.69</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="13">
         <f>'[1]Задание (2)'!I21/100</f>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>1000</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>77</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="13">
         <v>15</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="13">
         <v>795</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="13">
         <v>0.9</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="13">
         <f>'[1]Задание (2)'!B22/100</f>
         <v>0.7</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <f>'[1]Задание (2)'!I22/100</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>190</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>60</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>6</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>805</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>1.32</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <f>'[1]Задание (2)'!B23/100</f>
         <v>0.8</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <f>'[1]Задание (2)'!I23/100</f>
         <v>1E-4</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>150</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>105</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>14</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>790</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="13">
         <v>1.3</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="13">
         <f>'[1]Задание (2)'!B24/100</f>
         <v>0.88300000000000001</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <f>'[1]Задание (2)'!I24/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>400</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>90</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <v>17</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>790</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>0.9</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="13">
         <f>'[1]Задание (2)'!B25/100</f>
         <v>0.5</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="13">
         <f>'[1]Задание (2)'!I25/100</f>
         <v>0.01</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>300</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>80</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>12</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>809</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>0.91</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="13">
         <f>'[1]Задание (2)'!B26/100</f>
         <v>0.6</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="13">
         <f>'[1]Задание (2)'!I26/100</f>
         <v>0.01</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>200</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>75</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>10</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>815</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>0.95</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="13">
         <f>'[1]Задание (2)'!B28/100</f>
         <v>0.5</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="13">
         <f>'[1]Задание (2)'!I28/100</f>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="13">
         <v>100</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>65</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>8</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>820</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="13">
         <f>'[1]Задание (2)'!B29/100</f>
         <v>0.75</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="13">
         <f>'[1]Задание (2)'!I29/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="13">
         <v>50</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>40</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>5</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>860</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="13">
         <v>1.3</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="13">
         <f>'[1]Задание (2)'!B30/100</f>
         <v>0.34</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="13">
         <f>'[1]Задание (2)'!I30/100</f>
         <v>0.02</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="13">
         <v>300</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>50</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>7</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>840</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="13">
         <v>1.2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="13">
         <f>'[1]Задание (2)'!B31/100</f>
         <v>0.3</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="13">
         <f>'[1]Задание (2)'!I31/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="13">
         <v>250</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>60</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>8</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>860</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>1</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="13">
         <f>'[1]Задание (2)'!B32/100</f>
         <v>0.24</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="13">
         <f>'[1]Задание (2)'!I32/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>200</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>80</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>9</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>870</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>1.4</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <f>'[1]Задание (2)'!B33/100</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <f>'[1]Задание (2)'!I33/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>140</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>70</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <v>10</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <v>850</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="13">
         <f>'[1]Задание (2)'!B34/100</f>
         <v>0.68</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="13">
         <f>'[1]Задание (2)'!I34/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>50</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>90</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="13">
         <v>9</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>890</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="13">
         <v>1.8</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="13">
         <f>'[1]Задание (2)'!B35/100</f>
         <v>0.7</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="13">
         <f>'[1]Задание (2)'!I35/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="13">
         <v>60</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>95</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="13">
         <v>11</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="13">
         <v>830</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="13">
         <v>1.5</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="13">
         <f>'[1]Задание (2)'!B36/100</f>
         <v>0.7</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="13">
         <f>'[1]Задание (2)'!I36/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>89</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>105</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="13">
         <v>8</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="13">
         <v>800</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="13">
         <v>1.9</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="13">
         <f>'[1]Задание (2)'!B37/100</f>
         <v>0.65</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="13">
         <f>'[1]Задание (2)'!I37/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>75</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="13">
         <v>80</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="13">
         <v>7</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>820</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="13">
         <f>'[1]Задание (2)'!B38/100</f>
         <v>0.45</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="13">
         <f>'[1]Задание (2)'!I38/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>74</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>75</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="13">
         <v>6</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>810</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="13">
         <v>1.2</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="13">
         <f>'[1]Задание (2)'!B39/100</f>
         <v>0.5</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="13">
         <f>'[1]Задание (2)'!I39/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>64</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>60</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>5</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>845</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <v>1.3</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <f>'[1]Задание (2)'!B40/100</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="13">
         <f>'[1]Задание (2)'!I40/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>65</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>35</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>8</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>840</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>1.4</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="13">
         <f>'[1]Задание (2)'!B41/100</f>
         <v>0.6</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="13">
         <f>'[1]Задание (2)'!I41/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="13">
         <v>58</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>89</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="13">
         <v>9</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="13">
         <v>860</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="13">
         <v>1.9</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="13">
         <f>'[1]Задание (2)'!B42/100</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="13">
         <f>'[1]Задание (2)'!I42/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="13">
         <v>90</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="13">
         <v>90</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="13">
         <v>11</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="13">
         <v>850</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="13">
         <v>1.7</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="13">
         <f>'[1]Задание (2)'!B43/100</f>
         <v>0.5</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="13">
         <f>'[1]Задание (2)'!I43/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="13">
         <v>100</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="13">
         <v>88</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="13">
         <v>12</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="13">
         <v>855</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>1.3</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="13">
         <f>'[1]Задание (2)'!B44/100</f>
         <v>0.72</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="13">
         <f>'[1]Задание (2)'!I44/100</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="17"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="C47" s="14"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2715,29 +2723,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-    <col min="3" max="3" width="7.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="18" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="18" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="15" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -2757,1390 +2765,1390 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <v>250</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>45</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="21">
         <v>12</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>805</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <v>1.05</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="23" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <v>140</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>90</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>10</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>830</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <v>0.9</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="23" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <v>400</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>80</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <v>11</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>810</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <v>0.85</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="21">
         <v>22</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="23" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="21">
         <v>25</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>30</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>6</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>860</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <v>1.46</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="23" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="21">
         <v>105</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>70</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="21">
         <v>12</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>830</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <v>1.6</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
         <v>1.2</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="23" t="s">
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="21">
         <v>56</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>90</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <v>6</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>845</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <v>1.3620000000000001</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="23" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="21">
         <v>400</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>90</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="21">
         <v>12</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="21">
         <v>790</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <v>0.9</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="23" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="21">
         <v>150</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>60</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="21">
         <v>8</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="21">
         <v>802</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <v>1.5</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="23" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>120</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>60</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="21">
         <v>14</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="21">
         <v>820</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="21">
         <v>1.7</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21">
         <v>30</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="23" t="s">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="21">
         <v>670</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>100</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="21">
         <v>9</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="21">
         <v>810</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="21">
         <v>1.05</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="23" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="21">
         <v>65</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>45</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="21">
         <v>6</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="21">
         <v>802</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <v>1.05</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="23" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="21">
         <v>27</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>35</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="21">
         <v>3</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>860</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <v>0.75</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="23" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <v>13</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>69</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>45</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="21">
         <v>15</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="21">
         <v>850</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <v>1.2</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="21">
         <v>190</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>90</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="21">
         <v>12</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>810</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <v>1.7889999999999999</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="23" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="21">
         <v>240</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>90</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="21">
         <v>8</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="21">
         <v>790</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <v>1.526</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
         <v>2.4</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="23" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>16</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="21">
         <v>460</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="21">
         <v>90</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="21">
         <v>10</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="21">
         <v>795</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <v>1.45</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="21">
         <v>13</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="23" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>17</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="21">
         <v>175</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>105</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="21">
         <v>9</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="21">
         <v>820</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <v>0.89</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21">
         <v>25</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25">
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21">
         <v>6</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="21">
         <v>380</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="21">
         <v>18</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>60</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="21">
         <v>85</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="21">
         <v>9</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="21">
         <v>830</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <v>1.1020000000000001</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25">
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21">
         <v>27</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="23" t="s">
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <v>19</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="21">
         <v>1000</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>77</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="21">
         <v>15</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="21">
         <v>795</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <v>0.9</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21">
         <v>16</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25">
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21">
         <v>7</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="21">
         <v>621</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="21">
         <v>140</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <v>90</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="21">
         <v>10</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="21">
         <v>790</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <v>1.526</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21">
         <v>1.8</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="29" t="s">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="21">
         <v>21</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="21">
         <v>90</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <v>85</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <v>9</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="21">
         <v>810</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="21">
         <v>1.1020000000000001</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21">
         <v>27</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="29" t="s">
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="21">
         <v>22</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>350</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <v>90</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <v>12</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <v>790</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="21">
         <v>1.7889999999999999</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="29" t="s">
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30" s="21">
         <v>23</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="21">
         <v>315</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="21">
         <v>100</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="21">
         <v>9</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="21">
         <v>800</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="21">
         <v>1.05</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="29" t="s">
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="21">
         <v>24</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="21">
         <v>400</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="21">
         <v>77</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="21">
         <v>15</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="21">
         <v>795</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="21">
         <v>0.9</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
         <v>18</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25">
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21">
         <v>7</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="21">
         <v>250</v>
       </c>
-      <c r="P31" s="29" t="s">
+      <c r="P31" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="21">
         <v>25</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="21">
         <v>130</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="21">
         <v>85</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="21">
         <v>8</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="21">
         <v>810</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="21">
         <v>1.05</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="29" t="s">
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+      <c r="A33" s="21">
         <v>26</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="21">
         <v>170</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="21">
         <v>70</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="21">
         <v>9</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="21">
         <v>790</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="21">
         <v>0.75</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="29" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="23">
         <v>27</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="24">
         <v>120</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="24">
         <v>60</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="24">
         <v>14</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="24">
         <v>820</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="24">
         <v>1.7</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25">
         <v>30</v>
       </c>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33" t="s">
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="23">
         <v>28</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="24">
         <v>175</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="24">
         <v>105</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="24">
         <v>9</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="24">
         <v>820</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="24">
         <v>0.89</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32">
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25">
         <v>25</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32">
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25">
         <v>6</v>
       </c>
-      <c r="O35" s="32">
+      <c r="O35" s="25">
         <v>380</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="23">
         <v>29</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="25">
         <v>250</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="25">
         <v>45</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="25">
         <v>12</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="25">
         <v>805</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="24">
         <v>1.05</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="23">
         <v>30</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="24">
         <v>120</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="24">
         <v>60</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="24">
         <v>14</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="24">
         <v>820</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="24">
         <v>1.7</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25">
         <v>30</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33" t="s">
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="23">
         <v>31</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="24">
         <v>69</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="24">
         <v>45</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="24">
         <v>15</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="24">
         <v>850</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="24">
         <v>1.2</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="32" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="33" t="s">
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="23">
         <v>32</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="24">
         <v>240</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="24">
         <v>90</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="24">
         <v>8</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="24">
         <v>790</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="24">
         <v>1.526</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="32" t="s">
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32">
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25">
         <v>2.4</v>
       </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="33" t="s">
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="23">
         <v>33</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="24">
         <v>27</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="24">
         <v>35</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="24">
         <v>3</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="24">
         <v>860</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="24">
         <v>0.75</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="33" t="s">
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="23">
         <v>34</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="24">
         <v>350</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="24">
         <v>90</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="24">
         <v>12</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="24">
         <v>790</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="24">
         <v>1.7889999999999999</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="33" t="s">
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="23">
         <v>35</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="24">
         <v>130</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="24">
         <v>85</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="24">
         <v>8</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="24">
         <v>810</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="24">
         <v>1.05</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="33" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26" t="s">
         <v>56</v>
       </c>
     </row>
